--- a/pred_ohlcv/54_21/2020-01-13 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>-3.849412739999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-2.353418019999999</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>2.290481980000001</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>1.665181980000001</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>2.826681980000001</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>18.28568198</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>12.66068198</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>10.87308198</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>12.99068198</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>14.44038198</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>14.22808198</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>17.00778198</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>27.07828198</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>183.59909256</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>174.78149256</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>164.03079256</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>162.94679256</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>157.09309256</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>170.78879256</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>14.52419570000016</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>14.04888790000016</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>25.99665108000016</v>
       </c>
       <c r="H482">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>31.88365108000016</v>
       </c>
       <c r="H483">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>34.40395108000016</v>
       </c>
       <c r="H484">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>38.71720789000015</v>
       </c>
       <c r="H485">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>38.56786124000016</v>
       </c>
       <c r="H486">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>39.16906124000015</v>
       </c>
       <c r="H487">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>40.42351459000015</v>
       </c>
       <c r="H488">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>70.15255511000015</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>68.65182502000015</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>65.19462502000015</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>65.19735543000014</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>65.05275543000015</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>63.49075543000015</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>64.51405543000016</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>68.10465543000015</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>67.85945543000015</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>68.29975543000015</v>
       </c>
       <c r="H528">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>67.93455543000015</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>67.31025543000014</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>67.48375543000014</v>
       </c>
       <c r="H531">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>61.01035543000015</v>
       </c>
       <c r="H532">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>60.94765543000015</v>
       </c>
       <c r="H533">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>61.01248360000015</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>60.64208360000015</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>57.48278360000015</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>49.85916524000011</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>96.03391793000011</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>96.38461793000012</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>92.64581793000012</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>92.77111793000012</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>92.45051793000012</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>93.32801793000012</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>93.30761793000012</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>93.58891793000012</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>131.5425440300001</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>128.4392440300001</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>129.3975440300001</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>136.9647440300001</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>135.2052292100001</v>
       </c>
       <c r="H835">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>136.8723292100001</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>123.4622292100001</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>123.4622292100001</v>
       </c>
       <c r="H838">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>130.3211292100002</v>
       </c>
       <c r="H839">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>135.0284292100002</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>155.3954143900002</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>155.3954143900002</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>152.9600143900002</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>132.0440258100002</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>116.7693469000002</v>
       </c>
       <c r="H962">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>115.1136469000002</v>
       </c>
       <c r="H963">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>118.3244469000002</v>
       </c>
       <c r="H964">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>116.8451469000002</v>
       </c>
       <c r="H965">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>120.4683469000002</v>
       </c>
       <c r="H966">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>121.4895469000002</v>
       </c>
       <c r="H967">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>122.8071351600002</v>
       </c>
       <c r="H968">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>118.9641351600002</v>
       </c>
       <c r="H969">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>119.5214351600002</v>
       </c>
       <c r="H970">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>120.8699351600002</v>
       </c>
       <c r="H971">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>120.0217351600002</v>
       </c>
       <c r="H972">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>120.9546351300002</v>
       </c>
       <c r="H973">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>120.9086051200002</v>
       </c>
       <c r="H974">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>122.4915051200002</v>
       </c>
       <c r="H975">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>124.5231051200002</v>
       </c>
       <c r="H976">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -34400,7 +34400,7 @@
         <v>183.9739466200002</v>
       </c>
       <c r="H1308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1309" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>179.5764936600002</v>
       </c>
       <c r="H1309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>185.8450679300002</v>
       </c>
       <c r="H1310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>180.2269679300002</v>
       </c>
       <c r="H1311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>175.4622508100002</v>
       </c>
       <c r="H1312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>177.4331508100002</v>
       </c>
       <c r="H1313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>173.6460258500002</v>
       </c>
       <c r="H1314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>174.1344258500002</v>
       </c>
       <c r="H1315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>169.8168258500002</v>
       </c>
       <c r="H1316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>167.5957258500002</v>
       </c>
       <c r="H1317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34660,7 +34660,7 @@
         <v>166.9201258700002</v>
       </c>
       <c r="H1318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1319" spans="1:8">
@@ -34686,7 +34686,7 @@
         <v>164.2904385000002</v>
       </c>
       <c r="H1319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1320" spans="1:8">
@@ -34712,7 +34712,7 @@
         <v>164.5078511300002</v>
       </c>
       <c r="H1320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1321" spans="1:8">
@@ -34738,7 +34738,7 @@
         <v>172.9363586700002</v>
       </c>
       <c r="H1321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1322" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>174.4353524900002</v>
       </c>
       <c r="H1322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>175.2197524900002</v>
       </c>
       <c r="H1323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>174.0298524900003</v>
       </c>
       <c r="H1324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>175.2012541200002</v>
       </c>
       <c r="H1325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>174.9713541200003</v>
       </c>
       <c r="H1326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>175.2869845100003</v>
       </c>
       <c r="H1327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>174.3486845100003</v>
       </c>
       <c r="H1328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>175.4922083300003</v>
       </c>
       <c r="H1329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>169.2704099600003</v>
       </c>
       <c r="H1330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>171.6907099600003</v>
       </c>
       <c r="H1331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>171.6352099600003</v>
       </c>
       <c r="H1332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 BTC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 BTC ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-2.481712739999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -808,7 +808,7 @@
         <v>24.89878198</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>25.45828198</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>27.21318197999999</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>26.92418197999999</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>31.10457107999999</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>39.10938197999999</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>183.59909256</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>174.78149256</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>164.03079256</v>
       </c>
       <c r="H338">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>162.94679256</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>157.09309256</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>70.15255511000015</v>
       </c>
       <c r="H519">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>68.65182502000015</v>
       </c>
       <c r="H520">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>65.19462502000015</v>
       </c>
       <c r="H521">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>65.19735543000014</v>
       </c>
       <c r="H522">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>65.05275543000015</v>
       </c>
       <c r="H523">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>63.49075543000015</v>
       </c>
       <c r="H524">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>64.51405543000016</v>
       </c>
       <c r="H525">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>68.10465543000015</v>
       </c>
       <c r="H526">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>67.85945543000015</v>
       </c>
       <c r="H527">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>68.29975543000015</v>
       </c>
       <c r="H528">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>67.93455543000015</v>
       </c>
       <c r="H529">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>67.31025543000014</v>
       </c>
       <c r="H530">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>67.48375543000014</v>
       </c>
       <c r="H531">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>61.01035543000015</v>
       </c>
       <c r="H532">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>60.94765543000015</v>
       </c>
       <c r="H533">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>61.01248360000015</v>
       </c>
       <c r="H534">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>60.64208360000015</v>
       </c>
       <c r="H535">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>57.48278360000015</v>
       </c>
       <c r="H536">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>49.85916524000011</v>
       </c>
       <c r="H657">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>96.45981795000012</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>96.03391793000011</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>96.38461793000012</v>
       </c>
       <c r="H720">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>92.64581793000012</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>92.77111793000012</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>92.45051793000012</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>93.32801793000012</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>93.30761793000012</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>93.58891793000012</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>131.5425440300001</v>
       </c>
       <c r="H831">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>128.4392440300001</v>
       </c>
       <c r="H832">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>129.3975440300001</v>
       </c>
       <c r="H833">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>136.9647440300001</v>
       </c>
       <c r="H834">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22102,7 +22102,7 @@
         <v>135.2052292100001</v>
       </c>
       <c r="H835">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>136.8723292100001</v>
       </c>
       <c r="H836">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>123.4622292100001</v>
       </c>
       <c r="H837">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22180,7 +22180,7 @@
         <v>123.4622292100001</v>
       </c>
       <c r="H838">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="839" spans="1:8">
@@ -22206,7 +22206,7 @@
         <v>130.3211292100002</v>
       </c>
       <c r="H839">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="840" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>135.0284292100002</v>
       </c>
       <c r="H840">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>155.3954143900002</v>
       </c>
       <c r="H841">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>155.3954143900002</v>
       </c>
       <c r="H842">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>152.9600143900002</v>
       </c>
       <c r="H843">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>132.0440258100002</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -25404,7 +25404,7 @@
         <v>116.7693469000002</v>
       </c>
       <c r="H962">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="963" spans="1:8">
@@ -25430,7 +25430,7 @@
         <v>115.1136469000002</v>
       </c>
       <c r="H963">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="964" spans="1:8">
@@ -25456,7 +25456,7 @@
         <v>118.3244469000002</v>
       </c>
       <c r="H964">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="965" spans="1:8">
@@ -25482,7 +25482,7 @@
         <v>116.8451469000002</v>
       </c>
       <c r="H965">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="966" spans="1:8">
@@ -25508,7 +25508,7 @@
         <v>120.4683469000002</v>
       </c>
       <c r="H966">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="967" spans="1:8">
@@ -25534,7 +25534,7 @@
         <v>121.4895469000002</v>
       </c>
       <c r="H967">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="968" spans="1:8">
@@ -25560,7 +25560,7 @@
         <v>122.8071351600002</v>
       </c>
       <c r="H968">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="969" spans="1:8">
@@ -25586,7 +25586,7 @@
         <v>118.9641351600002</v>
       </c>
       <c r="H969">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="970" spans="1:8">
@@ -25612,7 +25612,7 @@
         <v>119.5214351600002</v>
       </c>
       <c r="H970">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="971" spans="1:8">
@@ -25638,7 +25638,7 @@
         <v>120.8699351600002</v>
       </c>
       <c r="H971">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="972" spans="1:8">
@@ -25664,7 +25664,7 @@
         <v>120.0217351600002</v>
       </c>
       <c r="H972">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="973" spans="1:8">
@@ -25690,7 +25690,7 @@
         <v>120.9546351300002</v>
       </c>
       <c r="H973">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="974" spans="1:8">
@@ -25716,7 +25716,7 @@
         <v>120.9086051200002</v>
       </c>
       <c r="H974">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="975" spans="1:8">
@@ -25742,7 +25742,7 @@
         <v>122.4915051200002</v>
       </c>
       <c r="H975">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="976" spans="1:8">
@@ -25768,7 +25768,7 @@
         <v>124.5231051200002</v>
       </c>
       <c r="H976">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="977" spans="1:8">
@@ -34426,7 +34426,7 @@
         <v>179.5764936600002</v>
       </c>
       <c r="H1309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1310" spans="1:8">
@@ -34452,7 +34452,7 @@
         <v>185.8450679300002</v>
       </c>
       <c r="H1310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1311" spans="1:8">
@@ -34478,7 +34478,7 @@
         <v>180.2269679300002</v>
       </c>
       <c r="H1311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1312" spans="1:8">
@@ -34504,7 +34504,7 @@
         <v>175.4622508100002</v>
       </c>
       <c r="H1312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1313" spans="1:8">
@@ -34530,7 +34530,7 @@
         <v>177.4331508100002</v>
       </c>
       <c r="H1313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1314" spans="1:8">
@@ -34556,7 +34556,7 @@
         <v>173.6460258500002</v>
       </c>
       <c r="H1314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1315" spans="1:8">
@@ -34582,7 +34582,7 @@
         <v>174.1344258500002</v>
       </c>
       <c r="H1315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1316" spans="1:8">
@@ -34608,7 +34608,7 @@
         <v>169.8168258500002</v>
       </c>
       <c r="H1316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1317" spans="1:8">
@@ -34634,7 +34634,7 @@
         <v>167.5957258500002</v>
       </c>
       <c r="H1317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1318" spans="1:8">
@@ -34764,7 +34764,7 @@
         <v>174.4353524900002</v>
       </c>
       <c r="H1322">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1323" spans="1:8">
@@ -34790,7 +34790,7 @@
         <v>175.2197524900002</v>
       </c>
       <c r="H1323">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1324" spans="1:8">
@@ -34816,7 +34816,7 @@
         <v>174.0298524900003</v>
       </c>
       <c r="H1324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1325" spans="1:8">
@@ -34842,7 +34842,7 @@
         <v>175.2012541200002</v>
       </c>
       <c r="H1325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1326" spans="1:8">
@@ -34868,7 +34868,7 @@
         <v>174.9713541200003</v>
       </c>
       <c r="H1326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1327" spans="1:8">
@@ -34894,7 +34894,7 @@
         <v>175.2869845100003</v>
       </c>
       <c r="H1327">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1328" spans="1:8">
@@ -34920,7 +34920,7 @@
         <v>174.3486845100003</v>
       </c>
       <c r="H1328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1329" spans="1:8">
@@ -34946,7 +34946,7 @@
         <v>175.4922083300003</v>
       </c>
       <c r="H1329">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330" spans="1:8">
@@ -34972,7 +34972,7 @@
         <v>169.2704099600003</v>
       </c>
       <c r="H1330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1331" spans="1:8">
@@ -34998,7 +34998,7 @@
         <v>171.6907099600003</v>
       </c>
       <c r="H1331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1332" spans="1:8">
@@ -35024,7 +35024,7 @@
         <v>171.6352099600003</v>
       </c>
       <c r="H1332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
